--- a/backup/APP/PROFILE/2023-02-14.xlsx
+++ b/backup/APP/PROFILE/2023-02-14.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmj\Desktop\vscode\goldencross\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmj\Desktop\vscode\goldencross\backup\APP\PROFILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B77594F-A923-4ACF-8D24-120134B60749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D901A89-8CCA-4BB3-83A3-34013E6B45CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3687,6 +3687,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3716,20 +3730,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3744,14 +3744,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9AA7626-AA79-434B-A54E-939225E16AC5}" name="표1" displayName="표1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:G1048576" xr:uid="{B9AA7626-AA79-434B-A54E-939225E16AC5}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="GOLD"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9AA7626-AA79-434B-A54E-939225E16AC5}" name="표1" displayName="표1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:G1048576" xr:uid="{B9AA7626-AA79-434B-A54E-939225E16AC5}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{FC96F5F6-4375-4B86-B811-3DB82F4C8DA8}" name="종목이름"/>
     <tableColumn id="2" xr3:uid="{32F58AAB-7B92-49AF-9763-C70865DB2C23}" name="종목코드"/>
@@ -4053,10 +4047,10 @@
   <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
@@ -4090,7 +4084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4113,7 +4107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4136,7 +4130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -4159,7 +4153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4182,7 +4176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -4205,7 +4199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -4228,7 +4222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -4251,7 +4245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -4274,7 +4268,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4297,7 +4291,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -4320,7 +4314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -4343,7 +4337,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -4366,7 +4360,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -4389,7 +4383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -4412,7 +4406,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4435,7 +4429,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -4458,7 +4452,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -4481,7 +4475,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -4504,7 +4498,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -4527,7 +4521,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -4550,7 +4544,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -4573,7 +4567,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -4596,7 +4590,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -4619,7 +4613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -4642,7 +4636,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -4665,7 +4659,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -4688,7 +4682,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -4711,7 +4705,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -4734,7 +4728,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -4757,7 +4751,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>125</v>
       </c>
@@ -4780,7 +4774,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>129</v>
       </c>
@@ -4803,7 +4797,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>133</v>
       </c>
@@ -4826,7 +4820,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>137</v>
       </c>
@@ -4849,7 +4843,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>141</v>
       </c>
@@ -4872,7 +4866,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -4895,7 +4889,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -4918,7 +4912,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>153</v>
       </c>
@@ -4941,7 +4935,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -4964,7 +4958,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -4987,7 +4981,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -5010,7 +5004,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>169</v>
       </c>
@@ -5033,7 +5027,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -5056,7 +5050,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>177</v>
       </c>
@@ -5079,7 +5073,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>181</v>
       </c>
@@ -5102,7 +5096,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>185</v>
       </c>
@@ -5148,7 +5142,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>194</v>
       </c>
@@ -5171,7 +5165,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>198</v>
       </c>
@@ -5194,7 +5188,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>202</v>
       </c>
@@ -5217,7 +5211,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>206</v>
       </c>
@@ -5240,7 +5234,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>210</v>
       </c>
@@ -5263,7 +5257,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>214</v>
       </c>
@@ -5286,7 +5280,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -5309,7 +5303,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>221</v>
       </c>
@@ -5332,7 +5326,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>225</v>
       </c>
@@ -5355,7 +5349,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>229</v>
       </c>
@@ -5378,7 +5372,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>233</v>
       </c>
@@ -5401,7 +5395,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>237</v>
       </c>
@@ -5424,7 +5418,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>241</v>
       </c>
@@ -5447,7 +5441,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>245</v>
       </c>
@@ -5470,7 +5464,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>249</v>
       </c>
@@ -5493,7 +5487,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>253</v>
       </c>
@@ -5516,7 +5510,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>257</v>
       </c>
@@ -5539,7 +5533,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>261</v>
       </c>
@@ -5562,7 +5556,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>265</v>
       </c>
@@ -5585,7 +5579,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>270</v>
       </c>
@@ -5608,7 +5602,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>274</v>
       </c>
@@ -5631,7 +5625,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>278</v>
       </c>
@@ -5654,7 +5648,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>282</v>
       </c>
@@ -5677,7 +5671,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>286</v>
       </c>
@@ -5700,7 +5694,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>290</v>
       </c>
@@ -5723,7 +5717,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>294</v>
       </c>
@@ -5746,7 +5740,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>298</v>
       </c>
@@ -5769,7 +5763,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>302</v>
       </c>
@@ -5792,7 +5786,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>306</v>
       </c>
@@ -5815,7 +5809,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>310</v>
       </c>
@@ -5838,7 +5832,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>314</v>
       </c>
@@ -5861,7 +5855,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>318</v>
       </c>
@@ -5884,7 +5878,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>322</v>
       </c>
@@ -5907,7 +5901,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>326</v>
       </c>
@@ -5930,7 +5924,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>330</v>
       </c>
@@ -5953,7 +5947,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>334</v>
       </c>
@@ -5976,7 +5970,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>338</v>
       </c>
@@ -5999,7 +5993,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>342</v>
       </c>
@@ -6022,7 +6016,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>346</v>
       </c>
@@ -6045,7 +6039,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>350</v>
       </c>
@@ -6068,7 +6062,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>353</v>
       </c>
@@ -6091,7 +6085,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>357</v>
       </c>
@@ -6114,7 +6108,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>361</v>
       </c>
@@ -6137,7 +6131,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>365</v>
       </c>
@@ -6160,7 +6154,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>369</v>
       </c>
@@ -6183,7 +6177,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>373</v>
       </c>
@@ -6206,7 +6200,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>377</v>
       </c>
@@ -6229,7 +6223,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>381</v>
       </c>
@@ -6252,7 +6246,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>385</v>
       </c>
@@ -6275,7 +6269,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>389</v>
       </c>
@@ -6298,7 +6292,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>393</v>
       </c>
@@ -6321,7 +6315,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>397</v>
       </c>
@@ -6344,7 +6338,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>401</v>
       </c>
@@ -6367,7 +6361,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>405</v>
       </c>
@@ -6390,7 +6384,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>408</v>
       </c>
@@ -6413,7 +6407,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>412</v>
       </c>
@@ -6436,7 +6430,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>416</v>
       </c>
@@ -6459,7 +6453,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>420</v>
       </c>
@@ -6482,7 +6476,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>424</v>
       </c>
@@ -6505,7 +6499,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>428</v>
       </c>
@@ -6528,7 +6522,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>432</v>
       </c>
@@ -6551,7 +6545,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>436</v>
       </c>
@@ -6574,7 +6568,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>440</v>
       </c>
@@ -6597,7 +6591,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>444</v>
       </c>
@@ -6620,7 +6614,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>448</v>
       </c>
@@ -6666,7 +6660,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>456</v>
       </c>
@@ -6689,7 +6683,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>460</v>
       </c>
@@ -6712,7 +6706,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>464</v>
       </c>
@@ -6735,7 +6729,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>468</v>
       </c>
@@ -6758,7 +6752,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>472</v>
       </c>
@@ -6781,7 +6775,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>476</v>
       </c>
@@ -6804,7 +6798,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>480</v>
       </c>
@@ -6827,7 +6821,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>484</v>
       </c>
@@ -6850,7 +6844,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>488</v>
       </c>
@@ -6873,7 +6867,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>492</v>
       </c>
@@ -6896,7 +6890,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>496</v>
       </c>
@@ -6919,7 +6913,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>500</v>
       </c>
@@ -6942,7 +6936,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>504</v>
       </c>
@@ -6965,7 +6959,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>508</v>
       </c>
@@ -6988,7 +6982,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>512</v>
       </c>
@@ -7011,7 +7005,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>516</v>
       </c>
@@ -7034,7 +7028,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>520</v>
       </c>
@@ -7057,7 +7051,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>523</v>
       </c>
@@ -7080,7 +7074,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>527</v>
       </c>
@@ -7103,7 +7097,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>531</v>
       </c>
@@ -7126,7 +7120,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>535</v>
       </c>
@@ -7149,7 +7143,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>539</v>
       </c>
@@ -7172,7 +7166,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>543</v>
       </c>
@@ -7195,7 +7189,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>547</v>
       </c>
@@ -7218,7 +7212,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>551</v>
       </c>
@@ -7241,7 +7235,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>555</v>
       </c>
@@ -7264,7 +7258,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>559</v>
       </c>
@@ -7287,7 +7281,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>563</v>
       </c>
@@ -7310,7 +7304,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>567</v>
       </c>
@@ -7333,7 +7327,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>571</v>
       </c>
@@ -7356,7 +7350,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>574</v>
       </c>
@@ -7402,7 +7396,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>582</v>
       </c>
@@ -7448,7 +7442,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>590</v>
       </c>
@@ -7471,7 +7465,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>594</v>
       </c>
@@ -7494,7 +7488,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>598</v>
       </c>
@@ -7517,7 +7511,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>602</v>
       </c>
@@ -7540,7 +7534,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>606</v>
       </c>
@@ -7563,7 +7557,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>610</v>
       </c>
@@ -7586,7 +7580,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>614</v>
       </c>
@@ -7609,7 +7603,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>618</v>
       </c>
@@ -7632,7 +7626,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>622</v>
       </c>
@@ -7655,7 +7649,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>626</v>
       </c>
@@ -7678,7 +7672,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>630</v>
       </c>
@@ -7701,7 +7695,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>633</v>
       </c>
@@ -7724,7 +7718,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>637</v>
       </c>
@@ -7747,7 +7741,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>641</v>
       </c>
@@ -7770,7 +7764,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>645</v>
       </c>
@@ -7793,7 +7787,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>649</v>
       </c>
@@ -7816,7 +7810,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>654</v>
       </c>
@@ -7839,7 +7833,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>658</v>
       </c>
@@ -7862,7 +7856,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>662</v>
       </c>
@@ -7885,7 +7879,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>666</v>
       </c>
@@ -7908,7 +7902,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>670</v>
       </c>
@@ -7931,7 +7925,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>674</v>
       </c>
@@ -7954,7 +7948,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>678</v>
       </c>
@@ -7977,7 +7971,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>682</v>
       </c>
@@ -8000,7 +7994,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>686</v>
       </c>
@@ -8023,7 +8017,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>690</v>
       </c>
@@ -8046,7 +8040,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>694</v>
       </c>
@@ -8069,7 +8063,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>698</v>
       </c>
@@ -8092,7 +8086,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>702</v>
       </c>
@@ -8115,7 +8109,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>706</v>
       </c>
@@ -8138,7 +8132,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>710</v>
       </c>
@@ -8161,7 +8155,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>714</v>
       </c>
@@ -8184,7 +8178,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>718</v>
       </c>
@@ -8207,7 +8201,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>722</v>
       </c>
@@ -8230,7 +8224,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>726</v>
       </c>
@@ -8253,7 +8247,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>730</v>
       </c>
@@ -8276,7 +8270,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>734</v>
       </c>
@@ -8299,7 +8293,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>738</v>
       </c>
@@ -8322,7 +8316,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>742</v>
       </c>
@@ -8345,7 +8339,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>746</v>
       </c>
@@ -8368,7 +8362,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>750</v>
       </c>
@@ -8391,7 +8385,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>754</v>
       </c>
@@ -8414,7 +8408,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>758</v>
       </c>
@@ -8437,7 +8431,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>762</v>
       </c>
@@ -8460,7 +8454,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>766</v>
       </c>
@@ -8483,7 +8477,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>770</v>
       </c>
@@ -8506,7 +8500,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>774</v>
       </c>
@@ -8529,7 +8523,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>778</v>
       </c>
@@ -8552,7 +8546,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>782</v>
       </c>
@@ -8575,7 +8569,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>786</v>
       </c>
@@ -8598,7 +8592,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>790</v>
       </c>
@@ -8621,7 +8615,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>794</v>
       </c>
@@ -8644,7 +8638,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>797</v>
       </c>
@@ -8667,7 +8661,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>801</v>
       </c>
@@ -8690,7 +8684,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>805</v>
       </c>
@@ -8713,7 +8707,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>809</v>
       </c>
@@ -8736,7 +8730,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>813</v>
       </c>
@@ -8759,7 +8753,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>817</v>
       </c>
@@ -8782,7 +8776,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>821</v>
       </c>
@@ -8805,7 +8799,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>825</v>
       </c>
@@ -8828,7 +8822,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>829</v>
       </c>
@@ -8851,7 +8845,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>833</v>
       </c>
@@ -8874,7 +8868,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>837</v>
       </c>
@@ -8897,7 +8891,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>841</v>
       </c>
@@ -8920,7 +8914,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>845</v>
       </c>
@@ -8943,7 +8937,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>849</v>
       </c>
@@ -8966,7 +8960,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>853</v>
       </c>
@@ -8989,7 +8983,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>857</v>
       </c>
@@ -9012,7 +9006,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>861</v>
       </c>
@@ -9035,7 +9029,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>865</v>
       </c>
@@ -9058,7 +9052,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>869</v>
       </c>
@@ -9081,7 +9075,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>873</v>
       </c>
@@ -9104,7 +9098,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>877</v>
       </c>
@@ -9127,7 +9121,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>881</v>
       </c>
@@ -9173,7 +9167,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>888</v>
       </c>
@@ -9196,7 +9190,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>892</v>
       </c>
@@ -9219,7 +9213,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>896</v>
       </c>
@@ -9242,7 +9236,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>900</v>
       </c>
@@ -9265,7 +9259,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>904</v>
       </c>
@@ -9288,7 +9282,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>908</v>
       </c>
@@ -9311,7 +9305,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>912</v>
       </c>
@@ -9334,7 +9328,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>916</v>
       </c>
@@ -9357,7 +9351,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>920</v>
       </c>
@@ -9380,7 +9374,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>924</v>
       </c>
@@ -9403,7 +9397,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>928</v>
       </c>
@@ -9426,7 +9420,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>932</v>
       </c>
@@ -9449,7 +9443,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>936</v>
       </c>
@@ -9472,7 +9466,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>940</v>
       </c>
@@ -9495,7 +9489,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>944</v>
       </c>
@@ -9518,7 +9512,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>948</v>
       </c>
@@ -9541,7 +9535,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>952</v>
       </c>
@@ -9564,7 +9558,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>956</v>
       </c>
@@ -9587,7 +9581,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>960</v>
       </c>
@@ -9610,7 +9604,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>964</v>
       </c>
@@ -9633,7 +9627,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>968</v>
       </c>
@@ -9656,7 +9650,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>972</v>
       </c>
@@ -9679,7 +9673,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>976</v>
       </c>
@@ -9702,7 +9696,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>980</v>
       </c>
@@ -9725,7 +9719,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>984</v>
       </c>
@@ -9748,7 +9742,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>988</v>
       </c>
@@ -9771,7 +9765,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>992</v>
       </c>
@@ -9794,7 +9788,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>996</v>
       </c>
@@ -9817,7 +9811,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1000</v>
       </c>
@@ -9840,7 +9834,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1004</v>
       </c>
@@ -9863,7 +9857,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1008</v>
       </c>
@@ -9886,7 +9880,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1012</v>
       </c>
@@ -9909,7 +9903,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1015</v>
       </c>
@@ -9932,7 +9926,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1019</v>
       </c>
@@ -9955,7 +9949,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1023</v>
       </c>
@@ -9978,7 +9972,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1027</v>
       </c>
@@ -10001,7 +9995,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1031</v>
       </c>
@@ -10024,7 +10018,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1035</v>
       </c>
@@ -10047,7 +10041,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1039</v>
       </c>
@@ -10070,7 +10064,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1043</v>
       </c>
@@ -10093,7 +10087,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1047</v>
       </c>
@@ -10116,7 +10110,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1051</v>
       </c>
@@ -10139,7 +10133,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1055</v>
       </c>
@@ -10162,7 +10156,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1059</v>
       </c>
@@ -10185,7 +10179,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1063</v>
       </c>
@@ -10208,7 +10202,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1067</v>
       </c>
@@ -10231,7 +10225,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1070</v>
       </c>
@@ -10254,7 +10248,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1074</v>
       </c>
@@ -10277,7 +10271,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1078</v>
       </c>
@@ -10300,7 +10294,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1082</v>
       </c>
@@ -10323,7 +10317,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1086</v>
       </c>
@@ -10346,7 +10340,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1090</v>
       </c>
@@ -10369,7 +10363,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1093</v>
       </c>
@@ -10392,7 +10386,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1097</v>
       </c>
@@ -10415,7 +10409,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1101</v>
       </c>
@@ -10438,7 +10432,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1105</v>
       </c>
@@ -10461,7 +10455,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1109</v>
       </c>
@@ -10484,7 +10478,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1113</v>
       </c>
@@ -10507,7 +10501,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1116</v>
       </c>
@@ -10530,7 +10524,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1120</v>
       </c>
@@ -10553,7 +10547,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1124</v>
       </c>
@@ -10576,7 +10570,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1128</v>
       </c>
@@ -10599,7 +10593,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1132</v>
       </c>
@@ -10622,7 +10616,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1136</v>
       </c>
@@ -10645,7 +10639,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1140</v>
       </c>
@@ -10668,7 +10662,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1143</v>
       </c>
@@ -10691,7 +10685,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1147</v>
       </c>
@@ -10714,7 +10708,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1151</v>
       </c>
@@ -10737,7 +10731,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1155</v>
       </c>
@@ -10760,7 +10754,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1159</v>
       </c>
@@ -10783,7 +10777,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1163</v>
       </c>
@@ -10806,7 +10800,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1167</v>
       </c>
@@ -10829,7 +10823,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1171</v>
       </c>
@@ -10852,7 +10846,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1175</v>
       </c>
@@ -10875,7 +10869,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1179</v>
       </c>
@@ -10898,7 +10892,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1183</v>
       </c>
@@ -10921,7 +10915,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1187</v>
       </c>
@@ -10944,7 +10938,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1191</v>
       </c>
@@ -10967,7 +10961,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1194</v>
       </c>
